--- a/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
+++ b/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,193 +452,345 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>847</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1588</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>113</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45397</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45404</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45411</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>148</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45425</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>192</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45432</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45439</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45446</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>416</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45453</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45467</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>1200</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>320</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45579</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>350</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45586</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>252</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45593</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45600</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45628</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>134</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45635</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B25" t="n">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B44" t="n">
         <v>72</v>
       </c>
     </row>
@@ -653,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,73 +827,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2415</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2548</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>422</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>430</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1520</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>614</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45627</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B16" t="n">
         <v>206</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
+++ b/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,169 +628,161 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>847</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>1588</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>113</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>44</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>192</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>24</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>416</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>1200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>350</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45641.99999999999</v>
-      </c>
-      <c r="B44" t="n">
         <v>72</v>
       </c>
     </row>
@@ -886,7 +878,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2548</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="10">

--- a/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
+++ b/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -813,7 +814,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -935,6 +936,747 @@
       </c>
       <c r="B16" t="n">
         <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-306.0910904943773</v>
+      </c>
+      <c r="D2" t="n">
+        <v>723.994414250933</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-336.8435437455274</v>
+      </c>
+      <c r="D3" t="n">
+        <v>761.9769652293602</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>193</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-321.9191877549059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>733.3661865738694</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>195</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-328.6178800563654</v>
+      </c>
+      <c r="D5" t="n">
+        <v>749.1341967663283</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>196</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-380.7522533986624</v>
+      </c>
+      <c r="D6" t="n">
+        <v>715.3456818996628</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>197</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-335.2636370263596</v>
+      </c>
+      <c r="D7" t="n">
+        <v>730.3867010146049</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>199</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-328.6779349216671</v>
+      </c>
+      <c r="D8" t="n">
+        <v>706.198807283359</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-340.8259390026039</v>
+      </c>
+      <c r="D9" t="n">
+        <v>699.3179772222371</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>202</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-349.7843597711542</v>
+      </c>
+      <c r="D10" t="n">
+        <v>752.8180000419035</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>203</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-318.7622797404824</v>
+      </c>
+      <c r="D11" t="n">
+        <v>753.7657176699353</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>205</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-312.0292892113168</v>
+      </c>
+      <c r="D12" t="n">
+        <v>756.9317039157346</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>206</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-319.2041769938524</v>
+      </c>
+      <c r="D13" t="n">
+        <v>744.0481983129603</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>208</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-290.2998630578529</v>
+      </c>
+      <c r="D14" t="n">
+        <v>732.4602209182495</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>209</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-331.8705021760244</v>
+      </c>
+      <c r="D15" t="n">
+        <v>735.8090580796667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>211</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-340.2847335446766</v>
+      </c>
+      <c r="D16" t="n">
+        <v>681.987128658388</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>212</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-350.0279047347225</v>
+      </c>
+      <c r="D17" t="n">
+        <v>736.6011150360735</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>214</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-335.8592905336717</v>
+      </c>
+      <c r="D18" t="n">
+        <v>790.0278316330478</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>215</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-309.3602499881044</v>
+      </c>
+      <c r="D19" t="n">
+        <v>734.1610556654952</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>218</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-313.9091951875596</v>
+      </c>
+      <c r="D20" t="n">
+        <v>774.0068223143919</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>222</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-342.5987351684619</v>
+      </c>
+      <c r="D21" t="n">
+        <v>762.3776972929643</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>225</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-297.7005089952436</v>
+      </c>
+      <c r="D22" t="n">
+        <v>754.7290995676346</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>227</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-327.0061353421937</v>
+      </c>
+      <c r="D23" t="n">
+        <v>732.8874421805135</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>237</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-267.0890865424281</v>
+      </c>
+      <c r="D24" t="n">
+        <v>756.3994972889365</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>239</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-259.6197744385266</v>
+      </c>
+      <c r="D25" t="n">
+        <v>737.3762035759759</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>245</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-295.617287479181</v>
+      </c>
+      <c r="D26" t="n">
+        <v>757.5162455212508</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>246</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-295.0955570585316</v>
+      </c>
+      <c r="D27" t="n">
+        <v>781.5017762919539</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>247</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-295.1806868613756</v>
+      </c>
+      <c r="D28" t="n">
+        <v>737.8532187224178</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>249</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-278.3773641172883</v>
+      </c>
+      <c r="D29" t="n">
+        <v>773.6906228974606</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>250</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-313.4854370785845</v>
+      </c>
+      <c r="D30" t="n">
+        <v>796.055673652706</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>252</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-245.2348685276074</v>
+      </c>
+      <c r="D31" t="n">
+        <v>798.2701754189258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>253</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-267.9118403851724</v>
+      </c>
+      <c r="D32" t="n">
+        <v>738.9139553847103</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>255</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-300.904612020534</v>
+      </c>
+      <c r="D33" t="n">
+        <v>788.8711030347267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>256</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-299.483195415236</v>
+      </c>
+      <c r="D34" t="n">
+        <v>804.7090664981512</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>259</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-331.855199547621</v>
+      </c>
+      <c r="D35" t="n">
+        <v>811.0586855005876</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>262</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-255.3045604640578</v>
+      </c>
+      <c r="D36" t="n">
+        <v>814.6153599073094</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>264</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-285.5728322588703</v>
+      </c>
+      <c r="D37" t="n">
+        <v>806.7286987307905</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>283</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-260.3448020535126</v>
+      </c>
+      <c r="D38" t="n">
+        <v>800.0379097409231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>284</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-249.3646944803042</v>
+      </c>
+      <c r="D39" t="n">
+        <v>849.4704125435342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>286</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-249.3421762474821</v>
+      </c>
+      <c r="D40" t="n">
+        <v>818.6008478827405</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>287</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-200.0433017470792</v>
+      </c>
+      <c r="D41" t="n">
+        <v>828.3835339213023</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>293</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-240.1813580117824</v>
+      </c>
+      <c r="D42" t="n">
+        <v>842.3820942152601</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>295</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-229.8953842520768</v>
+      </c>
+      <c r="D43" t="n">
+        <v>785.9992351505401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>296</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-231.2311762858348</v>
+      </c>
+      <c r="D44" t="n">
+        <v>845.9187546527149</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>297</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-228.3951548927876</v>
+      </c>
+      <c r="D45" t="n">
+        <v>830.3495367545362</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>299</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-200.9840909515363</v>
+      </c>
+      <c r="D46" t="n">
+        <v>847.4524696223967</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>300</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-301.2135776293399</v>
+      </c>
+      <c r="D47" t="n">
+        <v>826.1256406448408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>302</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-242.3401270123555</v>
+      </c>
+      <c r="D48" t="n">
+        <v>872.9022327239651</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>303</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-235.4991382778352</v>
+      </c>
+      <c r="D49" t="n">
+        <v>797.3157051799433</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>305</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-253.87187463073</v>
+      </c>
+      <c r="D50" t="n">
+        <v>827.3435958028618</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>306</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-206.6328201773559</v>
+      </c>
+      <c r="D51" t="n">
+        <v>849.3587699982918</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
+++ b/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
@@ -949,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,16 +968,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -986,12 +976,6 @@
       <c r="B2" t="n">
         <v>189</v>
       </c>
-      <c r="C2" t="n">
-        <v>-306.0910904943773</v>
-      </c>
-      <c r="D2" t="n">
-        <v>723.994414250933</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1000,12 +984,6 @@
       <c r="B3" t="n">
         <v>192</v>
       </c>
-      <c r="C3" t="n">
-        <v>-336.8435437455274</v>
-      </c>
-      <c r="D3" t="n">
-        <v>761.9769652293602</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1014,12 +992,6 @@
       <c r="B4" t="n">
         <v>193</v>
       </c>
-      <c r="C4" t="n">
-        <v>-321.9191877549059</v>
-      </c>
-      <c r="D4" t="n">
-        <v>733.3661865738694</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1028,12 +1000,6 @@
       <c r="B5" t="n">
         <v>195</v>
       </c>
-      <c r="C5" t="n">
-        <v>-328.6178800563654</v>
-      </c>
-      <c r="D5" t="n">
-        <v>749.1341967663283</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1042,12 +1008,6 @@
       <c r="B6" t="n">
         <v>196</v>
       </c>
-      <c r="C6" t="n">
-        <v>-380.7522533986624</v>
-      </c>
-      <c r="D6" t="n">
-        <v>715.3456818996628</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1056,12 +1016,6 @@
       <c r="B7" t="n">
         <v>197</v>
       </c>
-      <c r="C7" t="n">
-        <v>-335.2636370263596</v>
-      </c>
-      <c r="D7" t="n">
-        <v>730.3867010146049</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1070,12 +1024,6 @@
       <c r="B8" t="n">
         <v>199</v>
       </c>
-      <c r="C8" t="n">
-        <v>-328.6779349216671</v>
-      </c>
-      <c r="D8" t="n">
-        <v>706.198807283359</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1084,12 +1032,6 @@
       <c r="B9" t="n">
         <v>200</v>
       </c>
-      <c r="C9" t="n">
-        <v>-340.8259390026039</v>
-      </c>
-      <c r="D9" t="n">
-        <v>699.3179772222371</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1098,12 +1040,6 @@
       <c r="B10" t="n">
         <v>202</v>
       </c>
-      <c r="C10" t="n">
-        <v>-349.7843597711542</v>
-      </c>
-      <c r="D10" t="n">
-        <v>752.8180000419035</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1112,12 +1048,6 @@
       <c r="B11" t="n">
         <v>203</v>
       </c>
-      <c r="C11" t="n">
-        <v>-318.7622797404824</v>
-      </c>
-      <c r="D11" t="n">
-        <v>753.7657176699353</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1126,12 +1056,6 @@
       <c r="B12" t="n">
         <v>205</v>
       </c>
-      <c r="C12" t="n">
-        <v>-312.0292892113168</v>
-      </c>
-      <c r="D12" t="n">
-        <v>756.9317039157346</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1140,12 +1064,6 @@
       <c r="B13" t="n">
         <v>206</v>
       </c>
-      <c r="C13" t="n">
-        <v>-319.2041769938524</v>
-      </c>
-      <c r="D13" t="n">
-        <v>744.0481983129603</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1154,12 +1072,6 @@
       <c r="B14" t="n">
         <v>208</v>
       </c>
-      <c r="C14" t="n">
-        <v>-290.2998630578529</v>
-      </c>
-      <c r="D14" t="n">
-        <v>732.4602209182495</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1168,12 +1080,6 @@
       <c r="B15" t="n">
         <v>209</v>
       </c>
-      <c r="C15" t="n">
-        <v>-331.8705021760244</v>
-      </c>
-      <c r="D15" t="n">
-        <v>735.8090580796667</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1182,12 +1088,6 @@
       <c r="B16" t="n">
         <v>211</v>
       </c>
-      <c r="C16" t="n">
-        <v>-340.2847335446766</v>
-      </c>
-      <c r="D16" t="n">
-        <v>681.987128658388</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1196,12 +1096,6 @@
       <c r="B17" t="n">
         <v>212</v>
       </c>
-      <c r="C17" t="n">
-        <v>-350.0279047347225</v>
-      </c>
-      <c r="D17" t="n">
-        <v>736.6011150360735</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1210,12 +1104,6 @@
       <c r="B18" t="n">
         <v>214</v>
       </c>
-      <c r="C18" t="n">
-        <v>-335.8592905336717</v>
-      </c>
-      <c r="D18" t="n">
-        <v>790.0278316330478</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1224,12 +1112,6 @@
       <c r="B19" t="n">
         <v>215</v>
       </c>
-      <c r="C19" t="n">
-        <v>-309.3602499881044</v>
-      </c>
-      <c r="D19" t="n">
-        <v>734.1610556654952</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1238,12 +1120,6 @@
       <c r="B20" t="n">
         <v>218</v>
       </c>
-      <c r="C20" t="n">
-        <v>-313.9091951875596</v>
-      </c>
-      <c r="D20" t="n">
-        <v>774.0068223143919</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1252,12 +1128,6 @@
       <c r="B21" t="n">
         <v>222</v>
       </c>
-      <c r="C21" t="n">
-        <v>-342.5987351684619</v>
-      </c>
-      <c r="D21" t="n">
-        <v>762.3776972929643</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1266,12 +1136,6 @@
       <c r="B22" t="n">
         <v>225</v>
       </c>
-      <c r="C22" t="n">
-        <v>-297.7005089952436</v>
-      </c>
-      <c r="D22" t="n">
-        <v>754.7290995676346</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1280,12 +1144,6 @@
       <c r="B23" t="n">
         <v>227</v>
       </c>
-      <c r="C23" t="n">
-        <v>-327.0061353421937</v>
-      </c>
-      <c r="D23" t="n">
-        <v>732.8874421805135</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1294,12 +1152,6 @@
       <c r="B24" t="n">
         <v>237</v>
       </c>
-      <c r="C24" t="n">
-        <v>-267.0890865424281</v>
-      </c>
-      <c r="D24" t="n">
-        <v>756.3994972889365</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1308,12 +1160,6 @@
       <c r="B25" t="n">
         <v>239</v>
       </c>
-      <c r="C25" t="n">
-        <v>-259.6197744385266</v>
-      </c>
-      <c r="D25" t="n">
-        <v>737.3762035759759</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1322,12 +1168,6 @@
       <c r="B26" t="n">
         <v>245</v>
       </c>
-      <c r="C26" t="n">
-        <v>-295.617287479181</v>
-      </c>
-      <c r="D26" t="n">
-        <v>757.5162455212508</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1336,12 +1176,6 @@
       <c r="B27" t="n">
         <v>246</v>
       </c>
-      <c r="C27" t="n">
-        <v>-295.0955570585316</v>
-      </c>
-      <c r="D27" t="n">
-        <v>781.5017762919539</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1350,12 +1184,6 @@
       <c r="B28" t="n">
         <v>247</v>
       </c>
-      <c r="C28" t="n">
-        <v>-295.1806868613756</v>
-      </c>
-      <c r="D28" t="n">
-        <v>737.8532187224178</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1364,12 +1192,6 @@
       <c r="B29" t="n">
         <v>249</v>
       </c>
-      <c r="C29" t="n">
-        <v>-278.3773641172883</v>
-      </c>
-      <c r="D29" t="n">
-        <v>773.6906228974606</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1378,12 +1200,6 @@
       <c r="B30" t="n">
         <v>250</v>
       </c>
-      <c r="C30" t="n">
-        <v>-313.4854370785845</v>
-      </c>
-      <c r="D30" t="n">
-        <v>796.055673652706</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1392,12 +1208,6 @@
       <c r="B31" t="n">
         <v>252</v>
       </c>
-      <c r="C31" t="n">
-        <v>-245.2348685276074</v>
-      </c>
-      <c r="D31" t="n">
-        <v>798.2701754189258</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1406,12 +1216,6 @@
       <c r="B32" t="n">
         <v>253</v>
       </c>
-      <c r="C32" t="n">
-        <v>-267.9118403851724</v>
-      </c>
-      <c r="D32" t="n">
-        <v>738.9139553847103</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1420,12 +1224,6 @@
       <c r="B33" t="n">
         <v>255</v>
       </c>
-      <c r="C33" t="n">
-        <v>-300.904612020534</v>
-      </c>
-      <c r="D33" t="n">
-        <v>788.8711030347267</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1434,12 +1232,6 @@
       <c r="B34" t="n">
         <v>256</v>
       </c>
-      <c r="C34" t="n">
-        <v>-299.483195415236</v>
-      </c>
-      <c r="D34" t="n">
-        <v>804.7090664981512</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1448,12 +1240,6 @@
       <c r="B35" t="n">
         <v>259</v>
       </c>
-      <c r="C35" t="n">
-        <v>-331.855199547621</v>
-      </c>
-      <c r="D35" t="n">
-        <v>811.0586855005876</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1462,12 +1248,6 @@
       <c r="B36" t="n">
         <v>262</v>
       </c>
-      <c r="C36" t="n">
-        <v>-255.3045604640578</v>
-      </c>
-      <c r="D36" t="n">
-        <v>814.6153599073094</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1476,12 +1256,6 @@
       <c r="B37" t="n">
         <v>264</v>
       </c>
-      <c r="C37" t="n">
-        <v>-285.5728322588703</v>
-      </c>
-      <c r="D37" t="n">
-        <v>806.7286987307905</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1490,12 +1264,6 @@
       <c r="B38" t="n">
         <v>283</v>
       </c>
-      <c r="C38" t="n">
-        <v>-260.3448020535126</v>
-      </c>
-      <c r="D38" t="n">
-        <v>800.0379097409231</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1504,12 +1272,6 @@
       <c r="B39" t="n">
         <v>284</v>
       </c>
-      <c r="C39" t="n">
-        <v>-249.3646944803042</v>
-      </c>
-      <c r="D39" t="n">
-        <v>849.4704125435342</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1518,12 +1280,6 @@
       <c r="B40" t="n">
         <v>286</v>
       </c>
-      <c r="C40" t="n">
-        <v>-249.3421762474821</v>
-      </c>
-      <c r="D40" t="n">
-        <v>818.6008478827405</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1532,12 +1288,6 @@
       <c r="B41" t="n">
         <v>287</v>
       </c>
-      <c r="C41" t="n">
-        <v>-200.0433017470792</v>
-      </c>
-      <c r="D41" t="n">
-        <v>828.3835339213023</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1546,12 +1296,6 @@
       <c r="B42" t="n">
         <v>293</v>
       </c>
-      <c r="C42" t="n">
-        <v>-240.1813580117824</v>
-      </c>
-      <c r="D42" t="n">
-        <v>842.3820942152601</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1560,12 +1304,6 @@
       <c r="B43" t="n">
         <v>295</v>
       </c>
-      <c r="C43" t="n">
-        <v>-229.8953842520768</v>
-      </c>
-      <c r="D43" t="n">
-        <v>785.9992351505401</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1574,12 +1312,6 @@
       <c r="B44" t="n">
         <v>296</v>
       </c>
-      <c r="C44" t="n">
-        <v>-231.2311762858348</v>
-      </c>
-      <c r="D44" t="n">
-        <v>845.9187546527149</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1588,12 +1320,6 @@
       <c r="B45" t="n">
         <v>297</v>
       </c>
-      <c r="C45" t="n">
-        <v>-228.3951548927876</v>
-      </c>
-      <c r="D45" t="n">
-        <v>830.3495367545362</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1602,12 +1328,6 @@
       <c r="B46" t="n">
         <v>299</v>
       </c>
-      <c r="C46" t="n">
-        <v>-200.9840909515363</v>
-      </c>
-      <c r="D46" t="n">
-        <v>847.4524696223967</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1616,12 +1336,6 @@
       <c r="B47" t="n">
         <v>300</v>
       </c>
-      <c r="C47" t="n">
-        <v>-301.2135776293399</v>
-      </c>
-      <c r="D47" t="n">
-        <v>826.1256406448408</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1630,12 +1344,6 @@
       <c r="B48" t="n">
         <v>302</v>
       </c>
-      <c r="C48" t="n">
-        <v>-242.3401270123555</v>
-      </c>
-      <c r="D48" t="n">
-        <v>872.9022327239651</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1644,12 +1352,6 @@
       <c r="B49" t="n">
         <v>303</v>
       </c>
-      <c r="C49" t="n">
-        <v>-235.4991382778352</v>
-      </c>
-      <c r="D49" t="n">
-        <v>797.3157051799433</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1658,12 +1360,6 @@
       <c r="B50" t="n">
         <v>305</v>
       </c>
-      <c r="C50" t="n">
-        <v>-253.87187463073</v>
-      </c>
-      <c r="D50" t="n">
-        <v>827.3435958028618</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1671,12 +1367,6 @@
       </c>
       <c r="B51" t="n">
         <v>306</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-206.6328201773559</v>
-      </c>
-      <c r="D51" t="n">
-        <v>849.3587699982918</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
+++ b/po_analysis_by_asin/B0CCSX399J_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,6 +787,22 @@
         <v>72</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -798,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +954,14 @@
         <v>206</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -949,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,7 +998,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
@@ -982,7 +1006,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -990,7 +1014,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +1022,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -1006,7 +1030,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -1014,7 +1038,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
@@ -1022,7 +1046,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -1030,7 +1054,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -1038,7 +1062,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11">
@@ -1046,7 +1070,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12">
@@ -1054,7 +1078,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13">
@@ -1062,7 +1086,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14">
@@ -1070,7 +1094,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15">
@@ -1078,7 +1102,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16">
@@ -1086,7 +1110,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
@@ -1094,7 +1118,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
@@ -1102,7 +1126,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
@@ -1110,7 +1134,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
@@ -1126,7 +1150,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
@@ -1134,7 +1158,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
@@ -1142,7 +1166,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
@@ -1150,7 +1174,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
@@ -1158,7 +1182,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -1166,7 +1190,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
@@ -1174,7 +1198,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
@@ -1182,7 +1206,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
@@ -1190,7 +1214,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
@@ -1198,7 +1222,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
@@ -1206,7 +1230,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
@@ -1214,7 +1238,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
@@ -1222,7 +1246,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34">
@@ -1230,7 +1254,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35">
@@ -1238,7 +1262,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36">
@@ -1246,7 +1270,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
@@ -1254,7 +1278,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>264</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38">
@@ -1262,7 +1286,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>283</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39">
@@ -1270,7 +1294,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
@@ -1278,7 +1302,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
@@ -1286,7 +1310,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>287</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42">
@@ -1294,7 +1318,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>293</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43">
@@ -1302,71 +1326,87 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>296</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>299</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>302</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>303</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>305</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>306</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
